--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -1414,7 +1414,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statements of medical history entries (condition or procedure) and assertions of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').exists() implies ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Condition).exists() or Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Procedure).exists()) xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists())}inv-dh-cmp-06:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').exists() implies ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Condition).exists() or Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Procedure).exists()) xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists())}inv-dh-cmp-06:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
@@ -1445,7 +1445,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statements of administered vaccine entries and assertions of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no previous immunisations {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '401179006').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no previous immunisations {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url]().</t>
+    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1383,7 +1383,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medication entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no current medications {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is value and value.coding.code = '1200661000168107').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medication entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is value and value.coding.code = '1200661000168107').exists())}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Current Medications"/&gt;</t>
@@ -1445,7 +1445,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no previous immunisations {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no history of vaccination {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
   </si>
   <si>
     <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="453">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant {[]} {[]}
+    <t xml:space="preserve">instant
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding {[]} {[]}
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
+    <t>en-AU</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
+    <t xml:space="preserve">Reference(Encounter)
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime {[]} {[]}
+    <t xml:space="preserve">dateTime
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
 </t>
   </si>
   <si>
@@ -941,13 +941,10 @@
     <t>Legal attester</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="legal"/&gt;</t>
-  </si>
-  <si>
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
 </t>
   </si>
   <si>
@@ -1027,8 +1024,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier {[]} {[]}
-Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
+    <t>Identifier
+Reference(Composition)</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1094,7 +1091,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period {[]} {[]}
+    <t xml:space="preserve">Period
 </t>
   </si>
   <si>
@@ -1107,7 +1104,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
+    <t xml:space="preserve">Reference(Resource)
 </t>
   </si>
   <si>
@@ -1155,7 +1152,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
 </t>
   </si>
   <si>
@@ -1349,7 +1346,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
+    <t>Allergies and Adverse Reactions</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1360,10 +1357,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
+    <t>snapshot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
 </t>
   </si>
   <si>
@@ -1386,7 +1383,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medication entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is value and value.coding.code = '1200661000168107').exists())}</t>
   </si>
   <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Current Medications"/&gt;</t>
+    <t>Current Medications</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1397,7 +1394,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1415,9 +1412,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').exists() implies ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Condition).exists() or Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Procedure).exists()) xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists())}inv-dh-cmp-06:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1428,7 +1422,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1446,9 +1440,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no history of vaccination {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
-  </si>
-  <si>
-    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1459,7 +1450,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-administration-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-administration-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
 </t>
   </si>
   <si>
@@ -1516,67 +1507,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
@@ -1612,7 +1603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM124"/>
+  <dimension ref="A1:AL124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6245,7 +6236,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6529,7 +6520,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6552,19 +6543,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6613,7 +6604,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6628,10 +6619,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6639,7 +6630,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6665,13 +6656,13 @@
         <v>250</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6721,7 +6712,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6733,13 +6724,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AJ47" t="s" s="2">
+      <c r="AK47" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6747,7 +6738,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6853,7 +6844,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6961,7 +6952,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7069,7 +7060,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7095,13 +7086,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7130,46 +7121,46 @@
         <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
+      <c r="AK51" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7177,7 +7168,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7200,13 +7191,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>322</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7257,7 +7248,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7272,10 +7263,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7283,7 +7274,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7309,16 +7300,16 @@
         <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7367,7 +7358,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7379,13 +7370,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AK53" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7393,7 +7384,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7499,7 +7490,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7607,7 +7598,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7715,7 +7706,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7741,13 +7732,13 @@
         <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L57" t="s" s="2">
+      <c r="M57" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7776,11 +7767,11 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Y57" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="Y57" t="s" s="2">
-        <v>342</v>
-      </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
       </c>
@@ -7797,7 +7788,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7823,7 +7814,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7846,13 +7837,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7903,7 +7894,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7929,7 +7920,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7952,13 +7943,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8009,7 +8000,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8024,7 +8015,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -8035,7 +8026,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8061,10 +8052,10 @@
         <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8103,17 +8094,17 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8125,13 +8116,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AJ60" t="s" s="2">
+      <c r="AK60" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8139,7 +8130,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8245,7 +8236,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8349,10 +8340,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B63" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B63" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8374,13 +8365,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K63" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K63" t="s" s="2">
+      <c r="L63" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8457,7 +8448,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8565,11 +8556,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8591,16 +8582,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L65" t="s" s="2">
+      <c r="M65" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M65" t="s" s="2">
+      <c r="N65" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8649,7 +8640,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8675,7 +8666,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8701,16 +8692,16 @@
         <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8738,11 +8729,11 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y66" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y66" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
       </c>
@@ -8759,7 +8750,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8785,7 +8776,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8811,13 +8802,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="M67" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8867,7 +8858,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8876,16 +8867,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AI67" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK67" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8893,7 +8884,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8919,16 +8910,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8956,43 +8947,43 @@
         <v>176</v>
       </c>
       <c r="X68" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y68" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y68" t="s" s="2">
+      <c r="Z68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="Z68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE68" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF68" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG68" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI68" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ68" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
@@ -9003,7 +8994,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9029,16 +9020,16 @@
         <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L69" t="s" s="2">
+      <c r="M69" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M69" t="s" s="2">
+      <c r="N69" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -9066,43 +9057,43 @@
         <v>188</v>
       </c>
       <c r="X69" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y69" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y69" t="s" s="2">
+      <c r="Z69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE69" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF69" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG69" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI69" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ69" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9113,7 +9104,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9136,16 +9127,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9195,7 +9186,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9204,16 +9195,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AI70" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ70" t="s" s="2">
+      <c r="AK70" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK70" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9221,7 +9212,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9247,16 +9238,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9284,43 +9275,43 @@
         <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y71" t="s" s="2">
+      <c r="Z71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
         <v>415</v>
-      </c>
-      <c r="Z71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE71" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9331,7 +9322,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9357,13 +9348,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9413,7 +9404,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9422,16 +9413,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9439,10 +9430,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9467,10 +9458,10 @@
         <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9521,7 +9512,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9533,13 +9524,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AJ73" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK73" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9547,7 +9538,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9653,7 +9644,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9757,10 +9748,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9782,13 +9773,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K76" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K76" t="s" s="2">
+      <c r="L76" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9865,7 +9856,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9973,11 +9964,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9999,23 +9990,23 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L78" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L78" t="s" s="2">
+      <c r="M78" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M78" t="s" s="2">
+      <c r="N78" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>39</v>
@@ -10057,7 +10048,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10083,7 +10074,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10109,23 +10100,23 @@
         <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L79" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M79" t="s" s="2">
+      <c r="N79" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10146,11 +10137,11 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y79" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y79" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
       </c>
@@ -10167,7 +10158,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10193,7 +10184,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10219,13 +10210,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10275,7 +10266,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10284,16 +10275,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AI80" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK80" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10301,7 +10292,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10327,23 +10318,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L81" t="s" s="2">
+      <c r="M81" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M81" t="s" s="2">
+      <c r="N81" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10364,43 +10355,43 @@
         <v>176</v>
       </c>
       <c r="X81" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y81" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y81" t="s" s="2">
+      <c r="Z81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
@@ -10411,7 +10402,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10437,16 +10428,16 @@
         <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L82" t="s" s="2">
+      <c r="M82" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M82" t="s" s="2">
+      <c r="N82" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10474,43 +10465,43 @@
         <v>188</v>
       </c>
       <c r="X82" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y82" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y82" t="s" s="2">
+      <c r="Z82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10521,7 +10512,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10544,16 +10535,16 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="K83" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="K83" t="s" s="2">
-        <v>430</v>
-      </c>
       <c r="L83" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M83" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10603,7 +10594,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10612,16 +10603,16 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AI83" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
+      <c r="AK83" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10629,7 +10620,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10655,16 +10646,16 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L84" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L84" t="s" s="2">
+      <c r="M84" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M84" t="s" s="2">
+      <c r="N84" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10693,7 +10684,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10711,7 +10702,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10720,13 +10711,13 @@
         <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>68</v>
@@ -10737,7 +10728,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10763,13 +10754,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10819,7 +10810,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10828,16 +10819,16 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10845,10 +10836,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10873,10 +10864,10 @@
         <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10927,7 +10918,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10939,13 +10930,13 @@
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AJ86" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK86" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10953,7 +10944,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11059,7 +11050,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11163,10 +11154,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B89" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11188,13 +11179,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K89" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K89" t="s" s="2">
+      <c r="L89" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11271,7 +11262,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11379,11 +11370,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11405,23 +11396,23 @@
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L91" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="M91" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11463,7 +11454,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11489,7 +11480,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11515,23 +11506,23 @@
         <v>182</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L92" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L92" t="s" s="2">
+      <c r="M92" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M92" t="s" s="2">
+      <c r="N92" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11552,11 +11543,11 @@
         <v>109</v>
       </c>
       <c r="X92" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y92" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y92" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
       </c>
@@ -11573,7 +11564,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11599,7 +11590,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11625,13 +11616,13 @@
         <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L93" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="M93" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11681,7 +11672,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11690,16 +11681,16 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AI93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ93" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK93" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11707,7 +11698,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11733,23 +11724,23 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L94" t="s" s="2">
+      <c r="M94" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M94" t="s" s="2">
+      <c r="N94" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11770,43 +11761,43 @@
         <v>176</v>
       </c>
       <c r="X94" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y94" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y94" t="s" s="2">
+      <c r="Z94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="Z94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE94" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF94" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG94" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI94" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ94" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11817,7 +11808,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11843,16 +11834,16 @@
         <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L95" t="s" s="2">
+      <c r="M95" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M95" t="s" s="2">
+      <c r="N95" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
@@ -11880,43 +11871,43 @@
         <v>188</v>
       </c>
       <c r="X95" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y95" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y95" t="s" s="2">
+      <c r="Z95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE95" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>68</v>
@@ -11927,7 +11918,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11950,16 +11941,16 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K96" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="K96" t="s" s="2">
-        <v>439</v>
-      </c>
       <c r="L96" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M96" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12009,7 +12000,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12018,16 +12009,16 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AI96" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ96" t="s" s="2">
+      <c r="AK96" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK96" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12035,7 +12026,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12061,16 +12052,16 @@
         <v>182</v>
       </c>
       <c r="K97" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L97" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L97" t="s" s="2">
+      <c r="M97" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M97" t="s" s="2">
+      <c r="N97" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12099,7 +12090,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12117,7 +12108,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12126,13 +12117,13 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>68</v>
@@ -12143,7 +12134,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12169,13 +12160,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L98" t="s" s="2">
+      <c r="M98" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12225,7 +12216,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12234,16 +12225,16 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -12251,10 +12242,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -12279,10 +12270,10 @@
         <v>250</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>442</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12333,7 +12324,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12345,13 +12336,13 @@
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AJ99" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK99" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>39</v>
@@ -12359,7 +12350,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12465,7 +12456,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12569,10 +12560,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B102" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -12594,13 +12585,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K102" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K102" t="s" s="2">
+      <c r="L102" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12677,7 +12668,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12785,11 +12776,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12811,23 +12802,23 @@
         <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L104" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L104" t="s" s="2">
+      <c r="M104" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M104" t="s" s="2">
+      <c r="N104" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12869,7 +12860,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -12895,7 +12886,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12921,23 +12912,23 @@
         <v>182</v>
       </c>
       <c r="K105" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L105" t="s" s="2">
+      <c r="M105" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M105" t="s" s="2">
+      <c r="N105" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>39</v>
@@ -12958,11 +12949,11 @@
         <v>109</v>
       </c>
       <c r="X105" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y105" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y105" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z105" t="s" s="2">
         <v>39</v>
       </c>
@@ -12979,7 +12970,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -13005,7 +12996,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13031,13 +13022,13 @@
         <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L106" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L106" t="s" s="2">
+      <c r="M106" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M106" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13087,7 +13078,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13096,16 +13087,16 @@
         <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AI106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK106" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13113,7 +13104,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13139,23 +13130,23 @@
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L107" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L107" t="s" s="2">
+      <c r="M107" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M107" t="s" s="2">
+      <c r="N107" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>39</v>
@@ -13176,43 +13167,43 @@
         <v>176</v>
       </c>
       <c r="X107" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y107" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y107" t="s" s="2">
+      <c r="Z107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>68</v>
@@ -13223,7 +13214,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13249,16 +13240,16 @@
         <v>182</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L108" t="s" s="2">
+      <c r="M108" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M108" t="s" s="2">
+      <c r="N108" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>39</v>
@@ -13286,43 +13277,43 @@
         <v>188</v>
       </c>
       <c r="X108" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y108" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y108" t="s" s="2">
+      <c r="Z108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>68</v>
@@ -13333,7 +13324,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13356,16 +13347,16 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="L109" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M109" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13415,7 +13406,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13424,16 +13415,16 @@
         <v>41</v>
       </c>
       <c r="AH109" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AI109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
+      <c r="AK109" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>39</v>
@@ -13441,7 +13432,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13467,16 +13458,16 @@
         <v>182</v>
       </c>
       <c r="K110" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L110" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L110" t="s" s="2">
+      <c r="M110" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M110" t="s" s="2">
+      <c r="N110" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>39</v>
@@ -13505,7 +13496,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>39</v>
@@ -13523,7 +13514,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -13532,13 +13523,13 @@
         <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>68</v>
@@ -13549,7 +13540,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13575,13 +13566,13 @@
         <v>39</v>
       </c>
       <c r="K111" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L111" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L111" t="s" s="2">
+      <c r="M111" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13631,7 +13622,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -13640,16 +13631,16 @@
         <v>41</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -13657,10 +13648,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -13685,10 +13676,10 @@
         <v>250</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13739,7 +13730,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13751,13 +13742,13 @@
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="AJ112" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AK112" t="s" s="2">
         <v>358</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>359</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -13765,7 +13756,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13871,7 +13862,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13975,10 +13966,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B115" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -14000,13 +13991,13 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K115" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="K115" t="s" s="2">
+      <c r="L115" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14083,7 +14074,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14191,11 +14182,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14217,23 +14208,23 @@
         <v>64</v>
       </c>
       <c r="K117" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L117" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L117" t="s" s="2">
+      <c r="M117" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M117" t="s" s="2">
+      <c r="N117" t="s" s="2">
         <v>371</v>
-      </c>
-      <c r="N117" t="s" s="2">
-        <v>372</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14275,7 +14266,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14301,7 +14292,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14327,23 +14318,23 @@
         <v>182</v>
       </c>
       <c r="K118" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L118" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="L118" t="s" s="2">
+      <c r="M118" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="M118" t="s" s="2">
+      <c r="N118" t="s" s="2">
         <v>376</v>
-      </c>
-      <c r="N118" t="s" s="2">
-        <v>377</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14364,11 +14355,11 @@
         <v>109</v>
       </c>
       <c r="X118" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="Y118" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="Y118" t="s" s="2">
-        <v>379</v>
-      </c>
       <c r="Z118" t="s" s="2">
         <v>39</v>
       </c>
@@ -14385,7 +14376,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14411,7 +14402,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14437,13 +14428,13 @@
         <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="L119" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="M119" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14493,7 +14484,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14502,16 +14493,16 @@
         <v>50</v>
       </c>
       <c r="AH119" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AI119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="AK119" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>39</v>
@@ -14519,7 +14510,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14545,23 +14536,23 @@
         <v>119</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L120" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="M120" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="M120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>390</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>39</v>
@@ -14582,43 +14573,43 @@
         <v>176</v>
       </c>
       <c r="X120" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="Y120" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="Y120" t="s" s="2">
+      <c r="Z120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="Z120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE120" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="AF120" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG120" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI120" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ120" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>68</v>
@@ -14629,7 +14620,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14655,16 +14646,16 @@
         <v>182</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="L121" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="L121" t="s" s="2">
+      <c r="M121" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="M121" t="s" s="2">
+      <c r="N121" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>398</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>39</v>
@@ -14692,43 +14683,43 @@
         <v>188</v>
       </c>
       <c r="X121" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="Y121" t="s" s="2">
         <v>399</v>
       </c>
-      <c r="Y121" t="s" s="2">
+      <c r="Z121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE121" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="AF121" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG121" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI121" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ121" t="s" s="2">
-        <v>401</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>68</v>
@@ -14739,7 +14730,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14762,16 +14753,16 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L122" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="M122" t="s" s="2">
         <v>404</v>
-      </c>
-      <c r="M122" t="s" s="2">
-        <v>405</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14821,7 +14812,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -14830,16 +14821,16 @@
         <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="AI122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ122" t="s" s="2">
+      <c r="AK122" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AK122" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
@@ -14847,7 +14838,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14873,16 +14864,16 @@
         <v>182</v>
       </c>
       <c r="K123" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L123" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L123" t="s" s="2">
+      <c r="M123" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M123" t="s" s="2">
+      <c r="N123" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>39</v>
@@ -14911,7 +14902,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>39</v>
@@ -14929,7 +14920,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -14938,13 +14929,13 @@
         <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>68</v>
@@ -14955,7 +14946,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14981,13 +14972,13 @@
         <v>39</v>
       </c>
       <c r="K124" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L124" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L124" t="s" s="2">
+      <c r="M124" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M124" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15037,7 +15028,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15046,16 +15037,16 @@
         <v>41</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>39</v>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="456">
   <si>
     <t>Path</t>
   </si>
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Composition.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -213,7 +213,7 @@
     <t>Composition.meta.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>
@@ -236,7 +236,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -280,7 +280,7 @@
     <t>Composition.meta.lastUpdated</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -299,7 +299,7 @@
     <t>Composition.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -318,7 +318,7 @@
     <t>Composition.meta.security</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
+    <t xml:space="preserve">Coding {[]} {[]}
 </t>
   </si>
   <si>
@@ -386,7 +386,7 @@
     <t>Composition.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -399,7 +399,7 @@
     <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource  Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
-    <t>en-AU</t>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="en-AU"/&gt;</t>
   </si>
   <si>
     <t>A human language.</t>
@@ -418,7 +418,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -448,7 +448,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -482,7 +482,7 @@
     <t>compositionAuthorRole</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/composition-author-role}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/composition-author-role]]} {[]}
 </t>
   </si>
   <si>
@@ -503,7 +503,7 @@
     <t>informationRecipient</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/information-recipient}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/information-recipient]]} {[]}
 </t>
   </si>
   <si>
@@ -532,7 +532,7 @@
     <t>Composition.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -588,7 +588,7 @@
     <t>Composition.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -657,7 +657,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1]]}
 </t>
   </si>
   <si>
@@ -685,7 +685,7 @@
     <t>Composition.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Encounter]]}
 </t>
   </si>
   <si>
@@ -710,7 +710,7 @@
     <t>Composition.date</t>
   </si>
   <si>
-    <t xml:space="preserve">dateTime
+    <t xml:space="preserve">dateTime {[]} {[]}
 </t>
   </si>
   <si>
@@ -738,7 +738,7 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitioner-ident-1]]}
 </t>
   </si>
   <si>
@@ -803,7 +803,7 @@
     <t>Composition.attester</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement
+    <t xml:space="preserve">BackboneElement {[]} {[]}
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>attesterRelatedParty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/attester-related-party}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/attester-related-party]]} {[]}
 </t>
   </si>
   <si>
@@ -913,7 +913,7 @@
     <t>Composition.attester.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Organization)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/Organization]]}
 </t>
   </si>
   <si>
@@ -941,10 +941,13 @@
     <t>Legal attester</t>
   </si>
   <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="legal"/&gt;</t>
+  </si>
+  <si>
     <t>Composition.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/organization-ident-1]]}
 </t>
   </si>
   <si>
@@ -1024,8 +1027,8 @@
     <t>Composition.relatesTo.target[x]</t>
   </si>
   <si>
-    <t>Identifier
-Reference(Composition)</t>
+    <t>Identifier {[]} {[]}
+Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Composition]]}</t>
   </si>
   <si>
     <t>Target of the relationship</t>
@@ -1091,7 +1094,7 @@
     <t>Composition.event.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
+    <t xml:space="preserve">Period {[]} {[]}
 </t>
   </si>
   <si>
@@ -1104,7 +1107,7 @@
     <t>Composition.event.detail</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Resource]]}
 </t>
   </si>
   <si>
@@ -1152,7 +1155,7 @@
     <t>sectionAuthor</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/section-author}
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org.au/fhir/StructureDefinition/section-author]]} {[]}
 </t>
   </si>
   <si>
@@ -1346,7 +1349,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}</t>
   </si>
   <si>
-    <t>Allergies and Adverse Reactions</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Allergies and Adverse Reactions"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1357,10 +1360,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>snapshot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1)
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="snapshot"/&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/allergyintolerance-summary-1]]}
 </t>
   </si>
   <si>
@@ -1383,7 +1386,7 @@
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medication entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is value and value.coding.code = '1200661000168107').exists())}</t>
   </si>
   <si>
-    <t>Current Medications</t>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Current Medications"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1394,7 +1397,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medicationstatement-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1412,6 +1415,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').exists() implies ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Condition).exists() or Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Procedure).exists()) xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists())}inv-dh-cmp-06:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Medical History"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1422,7 +1428,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/condition-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/procedure-summary-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1440,6 +1446,9 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no history of vaccination {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
+  </si>
+  <si>
+    <t>&lt;valueString xmlns="http://hl7.org/fhir" value="Immunisations"/&gt;</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1450,7 +1459,7 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-administration-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1)
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/immunization-summary-administration-1], CanonicalType[http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/observation-norelevantfinding-1]]}
 </t>
   </si>
   <si>
@@ -1507,67 +1516,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="8"/>
       </bottom>
     </border>
   </borders>
@@ -1603,7 +1612,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AM124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -6236,7 +6245,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6520,7 +6529,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6543,19 +6552,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6604,7 +6613,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6619,10 +6628,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6630,7 +6639,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6656,13 +6665,13 @@
         <v>250</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6712,7 +6721,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6724,13 +6733,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6738,7 +6747,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6844,7 +6853,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6952,7 +6961,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7060,7 +7069,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7086,13 +7095,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7121,10 +7130,10 @@
         <v>176</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -7142,7 +7151,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>50</v>
@@ -7157,10 +7166,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7168,7 +7177,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7191,13 +7200,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7248,7 +7257,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7263,10 +7272,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7274,7 +7283,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7300,16 +7309,16 @@
         <v>250</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7358,7 +7367,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7370,13 +7379,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7384,7 +7393,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7490,7 +7499,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7598,7 +7607,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7706,7 +7715,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7732,13 +7741,13 @@
         <v>182</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7767,10 +7776,10 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7788,7 +7797,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7814,7 +7823,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7837,13 +7846,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7894,7 +7903,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7920,7 +7929,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7943,13 +7952,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8000,7 +8009,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8015,7 +8024,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -8026,7 +8035,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8052,10 +8061,10 @@
         <v>250</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8094,17 +8103,17 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8116,13 +8125,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8130,7 +8139,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8236,7 +8245,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8340,10 +8349,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8365,13 +8374,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8448,7 +8457,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8556,11 +8565,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8582,16 +8591,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8640,7 +8649,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8666,7 +8675,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8692,16 +8701,16 @@
         <v>182</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8729,10 +8738,10 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
@@ -8750,7 +8759,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8776,7 +8785,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8802,13 +8811,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8858,7 +8867,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8867,16 +8876,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8884,7 +8893,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8910,16 +8919,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8947,10 +8956,10 @@
         <v>176</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8968,7 +8977,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8983,7 +8992,7 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
@@ -8994,7 +9003,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9020,16 +9029,16 @@
         <v>182</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -9057,10 +9066,10 @@
         <v>188</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9078,7 +9087,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9093,7 +9102,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9104,7 +9113,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9127,16 +9136,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9186,7 +9195,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9195,16 +9204,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9212,7 +9221,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9238,16 +9247,16 @@
         <v>182</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9275,10 +9284,10 @@
         <v>188</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9296,7 +9305,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9305,13 +9314,13 @@
         <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9322,7 +9331,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9348,13 +9357,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9404,7 +9413,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9413,16 +9422,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9430,10 +9439,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9458,10 +9467,10 @@
         <v>250</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9512,7 +9521,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9524,13 +9533,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9538,7 +9547,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9644,7 +9653,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9748,10 +9757,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9773,13 +9782,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9856,7 +9865,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9964,11 +9973,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9990,23 +9999,23 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>39</v>
@@ -10048,7 +10057,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10074,7 +10083,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10100,23 +10109,23 @@
         <v>182</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="R79" t="s" s="2">
         <v>39</v>
@@ -10137,10 +10146,10 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -10158,7 +10167,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10184,7 +10193,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10210,13 +10219,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10266,7 +10275,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10275,16 +10284,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10292,7 +10301,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10318,23 +10327,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10355,10 +10364,10 @@
         <v>176</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>39</v>
@@ -10376,7 +10385,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10391,7 +10400,7 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
@@ -10402,7 +10411,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10428,16 +10437,16 @@
         <v>182</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10465,10 +10474,10 @@
         <v>188</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>39</v>
@@ -10486,7 +10495,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10501,7 +10510,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10512,7 +10521,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10535,16 +10544,16 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10594,7 +10603,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10603,16 +10612,16 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
@@ -10620,7 +10629,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10646,16 +10655,16 @@
         <v>182</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>39</v>
@@ -10684,7 +10693,7 @@
       </c>
       <c r="X84" s="2"/>
       <c r="Y84" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10702,7 +10711,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10711,13 +10720,13 @@
         <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>68</v>
@@ -10728,7 +10737,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10754,13 +10763,13 @@
         <v>39</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10810,7 +10819,7 @@
         <v>39</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10819,16 +10828,16 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
@@ -10836,10 +10845,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C86" t="s" s="2">
         <v>39</v>
@@ -10864,10 +10873,10 @@
         <v>250</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -10918,7 +10927,7 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
@@ -10930,13 +10939,13 @@
         <v>39</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10944,7 +10953,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11050,7 +11059,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11154,10 +11163,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>39</v>
@@ -11179,13 +11188,13 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11262,7 +11271,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11370,11 +11379,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11396,23 +11405,23 @@
         <v>64</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11454,7 +11463,7 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
@@ -11480,7 +11489,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11506,23 +11515,23 @@
         <v>182</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11543,10 +11552,10 @@
         <v>109</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
@@ -11564,7 +11573,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11590,7 +11599,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11616,13 +11625,13 @@
         <v>129</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
@@ -11672,7 +11681,7 @@
         <v>39</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
@@ -11681,16 +11690,16 @@
         <v>50</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11698,7 +11707,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11724,23 +11733,23 @@
         <v>119</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11761,10 +11770,10 @@
         <v>176</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11782,7 +11791,7 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
@@ -11797,7 +11806,7 @@
         <v>39</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>68</v>
@@ -11808,7 +11817,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11834,16 +11843,16 @@
         <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O95" t="s" s="2">
         <v>39</v>
@@ -11871,10 +11880,10 @@
         <v>188</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
@@ -11892,7 +11901,7 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
@@ -11907,7 +11916,7 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>68</v>
@@ -11918,7 +11927,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11941,16 +11950,16 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
@@ -12000,7 +12009,7 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
@@ -12009,16 +12018,16 @@
         <v>41</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12026,7 +12035,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12052,16 +12061,16 @@
         <v>182</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12090,7 +12099,7 @@
       </c>
       <c r="X97" s="2"/>
       <c r="Y97" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12108,7 +12117,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12117,13 +12126,13 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>68</v>
@@ -12134,7 +12143,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12160,13 +12169,13 @@
         <v>39</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12216,7 +12225,7 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
@@ -12225,16 +12234,16 @@
         <v>41</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
@@ -12242,10 +12251,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C99" t="s" s="2">
         <v>39</v>
@@ -12270,10 +12279,10 @@
         <v>250</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12324,7 +12333,7 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
@@ -12336,13 +12345,13 @@
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>39</v>
@@ -12350,7 +12359,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12456,7 +12465,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12560,10 +12569,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C102" t="s" s="2">
         <v>39</v>
@@ -12585,13 +12594,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12668,7 +12677,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12776,11 +12785,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12802,23 +12811,23 @@
         <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12860,7 +12869,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -12886,7 +12895,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12912,23 +12921,23 @@
         <v>182</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="R105" t="s" s="2">
         <v>39</v>
@@ -12949,10 +12958,10 @@
         <v>109</v>
       </c>
       <c r="X105" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y105" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z105" t="s" s="2">
         <v>39</v>
@@ -12970,7 +12979,7 @@
         <v>39</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
@@ -12996,7 +13005,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13022,13 +13031,13 @@
         <v>129</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13078,7 +13087,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13087,16 +13096,16 @@
         <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
@@ -13104,7 +13113,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13130,23 +13139,23 @@
         <v>119</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>39</v>
@@ -13167,10 +13176,10 @@
         <v>176</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>39</v>
@@ -13188,7 +13197,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13203,7 +13212,7 @@
         <v>39</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>68</v>
@@ -13214,7 +13223,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13240,16 +13249,16 @@
         <v>182</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O108" t="s" s="2">
         <v>39</v>
@@ -13277,10 +13286,10 @@
         <v>188</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>39</v>
@@ -13298,7 +13307,7 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
@@ -13313,7 +13322,7 @@
         <v>39</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>68</v>
@@ -13324,7 +13333,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13347,16 +13356,16 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
@@ -13406,7 +13415,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13415,16 +13424,16 @@
         <v>41</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>39</v>
@@ -13432,7 +13441,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13458,16 +13467,16 @@
         <v>182</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O110" t="s" s="2">
         <v>39</v>
@@ -13496,7 +13505,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>39</v>
@@ -13514,7 +13523,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -13523,13 +13532,13 @@
         <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK110" t="s" s="2">
         <v>68</v>
@@ -13540,7 +13549,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13566,13 +13575,13 @@
         <v>39</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
@@ -13622,7 +13631,7 @@
         <v>39</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -13631,16 +13640,16 @@
         <v>41</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
@@ -13648,10 +13657,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
@@ -13676,10 +13685,10 @@
         <v>250</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13730,7 +13739,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13742,13 +13751,13 @@
         <v>39</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -13756,7 +13765,7 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -13862,7 +13871,7 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -13966,10 +13975,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C115" t="s" s="2">
         <v>39</v>
@@ -13991,13 +14000,13 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M115" s="2"/>
       <c r="N115" s="2"/>
@@ -14074,7 +14083,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -14182,11 +14191,11 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14208,23 +14217,23 @@
         <v>64</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14266,7 +14275,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14292,7 +14301,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14318,23 +14327,23 @@
         <v>182</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14355,10 +14364,10 @@
         <v>109</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>39</v>
@@ -14376,7 +14385,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14402,7 +14411,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14428,13 +14437,13 @@
         <v>129</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14484,7 +14493,7 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
@@ -14493,16 +14502,16 @@
         <v>50</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>39</v>
@@ -14510,7 +14519,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14536,23 +14545,23 @@
         <v>119</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>39</v>
@@ -14573,10 +14582,10 @@
         <v>176</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>39</v>
@@ -14594,7 +14603,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -14609,7 +14618,7 @@
         <v>39</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK120" t="s" s="2">
         <v>68</v>
@@ -14620,7 +14629,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -14646,16 +14655,16 @@
         <v>182</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O121" t="s" s="2">
         <v>39</v>
@@ -14683,10 +14692,10 @@
         <v>188</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>39</v>
@@ -14704,7 +14713,7 @@
         <v>39</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
@@ -14719,7 +14728,7 @@
         <v>39</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK121" t="s" s="2">
         <v>68</v>
@@ -14730,7 +14739,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14753,16 +14762,16 @@
         <v>39</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14812,7 +14821,7 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
@@ -14821,16 +14830,16 @@
         <v>41</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
@@ -14838,7 +14847,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14864,16 +14873,16 @@
         <v>182</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O123" t="s" s="2">
         <v>39</v>
@@ -14902,7 +14911,7 @@
       </c>
       <c r="X123" s="2"/>
       <c r="Y123" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>39</v>
@@ -14920,7 +14929,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -14929,13 +14938,13 @@
         <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK123" t="s" s="2">
         <v>68</v>
@@ -14946,7 +14955,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14972,13 +14981,13 @@
         <v>39</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15028,7 +15037,7 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF124" t="s" s="2">
         <v>40</v>
@@ -15037,16 +15046,16 @@
         <v>41</v>
       </c>
       <c r="AH124" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ124" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK124" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL124" t="s" s="2">
         <v>39</v>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base/).</t>
+    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-09:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {Composition.extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-09:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {Composition.extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
   </si>
   <si>
     <t>informationRecipient</t>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -206,7 +206,7 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">inv-dh-cmp-01:One meta.profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-shs-1' {Composition.meta.profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-shs-1').exists()}
+    <t xml:space="preserve">inv-dh-cmp-01:One profile shall be 'http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-shs-1' {profile.where($this='http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/composition-shs-1').exists()}
 </t>
   </si>
   <si>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -306,7 +306,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](https://build.fhir.org/ig/hl7au/au-fhir-base-stu3/).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/STU3/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/STU3/).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>

--- a/output/SharedHealthSummary/composition-shs-1.xlsx
+++ b/output/SharedHealthSummary/composition-shs-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AL$144</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4220" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4896" uniqueCount="473">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-cmp-09:The author role shall at least have a reference that conforms to PractitionerRole with Practitioner with Mandatory Identifier or an identifier with at least a system and a value {extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.reference.resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1') or extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').valueReference.identifier.where(system.count() + value.count() &gt;1).exists()}inv-dh-cmp-10:The subject shall at least have a reference or an identifier with at least a system and a value {subject.reference.exists() or subject.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-11:The author shall at least have a reference or an identifier with at least a system and a value {author.reference.exists() or author.identifier.where(system.count() + value.count() &gt; 1).exists()}inv-dh-cmp-12:The custodian shall at least have a reference or an identifier with at least a system and a value {custodian.reference.exists() or custodian.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
   </si>
   <si>
     <t>Document[classCode="DOC" and moodCode="EVN" and isNormalAct()]</t>
@@ -497,7 +497,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}inv-dh-cmp-09:A practitioner role shall conform to PractitionerRole with Practitioner with Mandatory Identifier {Composition.extension('http://hl7.org.au/fhir/StructureDefinition/composition-author-role').resolve().conformsTo('http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/practitionerrole-withpractitionerident-1')}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>informationRecipient</t>
@@ -511,10 +511,6 @@
   </si>
   <si>
     <t>A recipient who should receive a copy of the composition. A recipient is an entity to whom a copy of the composition is directed at the time of authoring of the composition.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Composition.modifierExtension</t>
@@ -657,7 +653,7 @@
     <t>Composition.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1)
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-ihi-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/patient-mhr-1)
 </t>
   </si>
   <si>
@@ -935,10 +931,17 @@
     <t>who.witness</t>
   </si>
   <si>
+    <t>legalAttester</t>
+  </si>
+  <si>
+    <t>Legal Attester</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-com-0:Related party and party shall not coexist {(attester.extension('http://hl7.org.au/fhir/StructureDefinition/attester-related-party').exists() and attester.party.exists()).not()}inv-dh-cmp-13:The party shall at least have a reference or an identifier with at least a system and a value {party.reference.exists() or party.identifier.where(system.count() + value.count() &gt; 1).exists()}</t>
+  </si>
+  <si>
     <t>legal</t>
-  </si>
-  <si>
-    <t>Legal attester</t>
   </si>
   <si>
     <t>Composition.custodian</t>
@@ -1126,7 +1129,7 @@
     <t>The root of the sections that make up the composition.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
@@ -1134,7 +1137,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-02:The section shall at least have one entry or an empty reason, but not both {Composition.section.where($this is entry).exists() xor Composition.section.where($this is emptyReason).exists()}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-02:The section shall at least have one entry or an empty reason, but not both {entry.exists() xor emptyReason.exists()}</t>
   </si>
   <si>
     <t>./outboundRelationship[typeCode="COMP" and isNormalActRelationship()]/target[moodCode="EVN" and classCode="DOCSECT" and isNormalAct]</t>
@@ -1367,6 +1370,66 @@
     <t>Allergies and/or intolerances</t>
   </si>
   <si>
+    <t>Composition.section.entry.id</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.extension</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.reference</t>
+  </si>
+  <si>
+    <t>Literal reference, Relative, internal or absolute URL</t>
+  </si>
+  <si>
+    <t>A reference to a location at which the other resource is found. The reference may be a relative reference, in which case it is relative to the service base URL, or an absolute URL that resolves to the location where the resource is found. The reference may be version specific or not. If the reference is not to a FHIR RESTful server, then it should be assumed to be version specific. Internal fragment references (start with '#') refer to contained resources.</t>
+  </si>
+  <si>
+    <t>Using absolute URLs provides a stable scalable approach suitable for a cloud/web context, while using relative/logical references provides a flexible approach suitable for use when trading across closed eco-system boundaries.   Absolute URLs do not need to point to a FHIR RESTful server, though this is the preferred approach. If the URL conforms to the structure "/[type]/[id]" then it should be assumed that the reference is to a FHIR RESTful server.</t>
+  </si>
+  <si>
+    <t>Reference.reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ref-1
+</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.identifier</t>
+  </si>
+  <si>
+    <t>Logical reference, when literal reference is not known</t>
+  </si>
+  <si>
+    <t>An identifier for the other resource. This is used when there is no way to reference the other resource directly, either because the entity is not available through a FHIR server, or because there is no way for the author of the resource to convert a known identifier to an actual location. There is no requirement that a Reference.identifier point to something that is actually exposed as a FHIR instance, but it SHALL point to a business concept that would be expected to be exposed as a FHIR instance, and that instance would need to be of a FHIR resource type allowed by the reference.</t>
+  </si>
+  <si>
+    <t>When an identifier is provided in place of a reference, any system processing the reference will only be able to resolve the identifier to a reference if it understands the business context in which the identifier is used. Sometimes this is global (e.g. a national identifier) but often it is not. For this reason, none of the useful mechanisms described for working with references (e.g. chaining, includes) are possible, nor should servers be expected to be able resolve the reference. Servers may accept an identifier based reference untouched, resolve it, and/or reject it - see CapabilityStatement.rest.resource.referencePolicy. 
+When both an identifier and a literal reference are provided, the literal reference is preferred. Applications processing the resource are allowed - but not required - to check that the identifier matches the literal reference
+Applications converting a logical reference to a literal reference may choose to leave the logical reference present, or remove it.</t>
+  </si>
+  <si>
+    <t>Reference.identifier</t>
+  </si>
+  <si>
+    <t>.identifier</t>
+  </si>
+  <si>
+    <t>Composition.section.entry.display</t>
+  </si>
+  <si>
+    <t>Text alternative for the resource</t>
+  </si>
+  <si>
+    <t>Plain text narrative that identifies the resource in addition to the resource reference.</t>
+  </si>
+  <si>
+    <t>This is generally not the same as the Resource.text of the referenced resource.  The purpose is to identify what's being referenced, not to fully describe it.</t>
+  </si>
+  <si>
+    <t>Reference.display</t>
+  </si>
+  <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/health-summary-non-clinical-empty-reason-1</t>
   </si>
   <si>
@@ -1380,7 +1443,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medication entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').exists() implies (Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is MedicationStatement).exists() xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.32009').entry.resolve().where($this is value and value.coding.code = '1200661000168107').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-03:This section shall not contain both summary statement of known medication entries and assertion of no relevant finding entries {entry.resolve().where($this is MedicationStatement).exists() xor entry.resolve().where($this is Observation ).exists()}inv-dh-cmp-04:This section shall contain at most one assertion of no relevant finding entry and it shall assert no known current medications {entry.resolve().where($this is Observation).exists() implies (entry.resolve().where($this is Observation).count() &lt; 2 and entry.resolve().where($this is value and value.coding.code = '1200661000168107').exists())}</t>
   </si>
   <si>
     <t>Current Medications</t>
@@ -1411,7 +1474,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').exists() implies ((Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Condition).exists() or Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Procedure).exists()) xor Composition.section.where($this.code.coding.system='https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists())}inv-dh-cmp-06:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system = 'https://healthterminologies.gov.au/fhir/CodeSystem/nctis-data-components-1' and $this.code.coding.code = '101.16117').entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-05:This section shall not contain both summary statement of medical history entries (condition or procedure) and assertion of no relevant finding entries {(entry.resolve().where($this is Condition).exists() or entry.resolve().where($this is Procedure).exists()) xor entry.resolve().where($this is Observation).exists()}inv-dh-cmp-06:This section shall contain at most one assertion of no relevant finding entry and it shall assert no relevant medical history {entry.resolve().where($this is Observation).exists() implies (entry.resolve().where($this is Observation).count() &lt; 2 and entry.resolve().where($this is value and value.coding.code = '1224831000168103').exists())}</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1439,7 +1502,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
-cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Immunization).exists() xor Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation ).exists())}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no history of vaccination {Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).exists() implies (Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is Observation).count()&lt;2 and Composition.section.where($this.code.coding.system='http://loinc.org' and $this.code.coding.code = '11369-6').entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
+cmp-1:A section must at least one of text, entries, or sub-sections {text.exists() or entry.exists() or section.exists()}cmp-2:A section can only have an emptyReason if it is empty {emptyReason.empty() or entry.empty()}inv-dh-cmp-07:This section shall not contain both summary statement of administered vaccine entries and assertion of no relevant finding entries {entry.resolve().where($this is Immunization).exists() xor entry.resolve().where($this is Observation ).exists()}inv-dh-cmp-08:This section shall contain at most one assertion of no relevant finding entry and it shall assert no history of vaccination {entry.resolve().where($this is Observation).exists() implies (entry.resolve().where($this is Observation).count() &lt; 2 and entry.resolve().where($this is value and value.coding.code = '1234401000168109').exists())}</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1603,7 +1666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL124"/>
+  <dimension ref="A1:AL144"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -3584,7 +3647,7 @@
         <v>152</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ18" t="s" s="2">
         <v>39</v>
@@ -3598,7 +3661,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3624,10 +3687,10 @@
         <v>71</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M19" t="s" s="2">
         <v>74</v>
@@ -3680,7 +3743,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>40</v>
@@ -3706,7 +3769,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3729,16 +3792,16 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3788,7 +3851,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -3803,18 +3866,18 @@
         <v>39</v>
       </c>
       <c r="AJ20" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>169</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>170</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3840,16 +3903,16 @@
         <v>119</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>39</v>
@@ -3874,57 +3937,57 @@
         <v>39</v>
       </c>
       <c r="W21" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X21" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="X21" t="s" s="2">
+      <c r="Y21" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Y21" t="s" s="2">
+      <c r="Z21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3947,94 +4010,94 @@
         <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>186</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R22" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W22" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="R22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W22" t="s" s="2">
+      <c r="X22" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="Y22" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="Y22" t="s" s="2">
+      <c r="Z22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
+      <c r="AK22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>193</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4057,19 +4120,19 @@
         <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>39</v>
@@ -4097,54 +4160,54 @@
         <v>109</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="Y23" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y23" t="s" s="2">
+      <c r="Z23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4167,19 +4230,19 @@
         <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>206</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>39</v>
@@ -4228,7 +4291,7 @@
         <v>39</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>50</v>
@@ -4243,18 +4306,18 @@
         <v>39</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>210</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4277,17 +4340,17 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>39</v>
@@ -4336,7 +4399,7 @@
         <v>39</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>40</v>
@@ -4351,18 +4414,18 @@
         <v>39</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>218</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4385,19 +4448,19 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K26" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="L26" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>39</v>
@@ -4446,7 +4509,7 @@
         <v>39</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>50</v>
@@ -4461,18 +4524,18 @@
         <v>39</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4495,17 +4558,17 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>39</v>
@@ -4554,7 +4617,7 @@
         <v>39</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>50</v>
@@ -4569,18 +4632,18 @@
         <v>39</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4606,13 +4669,13 @@
         <v>64</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4662,7 +4725,7 @@
         <v>39</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4677,10 +4740,10 @@
         <v>39</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>39</v>
@@ -4688,7 +4751,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4714,13 +4777,13 @@
         <v>119</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>244</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>245</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4746,49 +4809,49 @@
         <v>39</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK29" t="s" s="2">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>39</v>
@@ -4796,7 +4859,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4819,19 +4882,19 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>39</v>
@@ -4868,7 +4931,7 @@
         <v>39</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AB30" s="2"/>
       <c r="AC30" t="s" s="2">
@@ -4878,7 +4941,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>40</v>
@@ -4890,13 +4953,13 @@
         <v>39</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>39</v>
@@ -4904,7 +4967,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5010,7 +5073,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5114,10 +5177,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>39</v>
@@ -5139,13 +5202,13 @@
         <v>39</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5208,7 +5271,7 @@
         <v>152</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>39</v>
@@ -5222,11 +5285,11 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5248,10 +5311,10 @@
         <v>71</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>74</v>
@@ -5304,7 +5367,7 @@
         <v>39</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>40</v>
@@ -5330,7 +5393,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5356,16 +5419,16 @@
         <v>119</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>39</v>
@@ -5390,14 +5453,14 @@
         <v>39</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X35" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y35" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y35" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z35" t="s" s="2">
         <v>39</v>
       </c>
@@ -5414,7 +5477,7 @@
         <v>39</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>50</v>
@@ -5429,10 +5492,10 @@
         <v>39</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>39</v>
@@ -5440,7 +5503,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5463,17 +5526,17 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>39</v>
@@ -5522,7 +5585,7 @@
         <v>39</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>40</v>
@@ -5537,10 +5600,10 @@
         <v>39</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK36" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>39</v>
@@ -5548,7 +5611,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5571,17 +5634,17 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>39</v>
@@ -5630,7 +5693,7 @@
         <v>39</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>40</v>
@@ -5645,21 +5708,21 @@
         <v>39</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>39</v>
@@ -5681,19 +5744,19 @@
         <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>39</v>
@@ -5742,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>40</v>
@@ -5754,13 +5817,13 @@
         <v>39</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AJ38" t="s" s="2">
+      <c r="AK38" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>39</v>
@@ -5768,7 +5831,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5874,7 +5937,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5978,10 +6041,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B41" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>39</v>
@@ -6003,13 +6066,13 @@
         <v>39</v>
       </c>
       <c r="J41" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K41" t="s" s="2">
+      <c r="L41" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6072,7 +6135,7 @@
         <v>152</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>39</v>
@@ -6086,11 +6149,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6112,10 +6175,10 @@
         <v>71</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>74</v>
@@ -6168,7 +6231,7 @@
         <v>39</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>40</v>
@@ -6194,7 +6257,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6220,23 +6283,23 @@
         <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>39</v>
@@ -6254,14 +6317,14 @@
         <v>39</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>275</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>39</v>
       </c>
@@ -6278,7 +6341,7 @@
         <v>39</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>50</v>
@@ -6293,10 +6356,10 @@
         <v>39</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>39</v>
@@ -6304,7 +6367,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6327,17 +6390,17 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>39</v>
@@ -6386,7 +6449,7 @@
         <v>39</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>40</v>
@@ -6401,10 +6464,10 @@
         <v>39</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>39</v>
@@ -6412,7 +6475,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6435,17 +6498,17 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>286</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>287</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>39</v>
@@ -6494,7 +6557,7 @@
         <v>39</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>40</v>
@@ -6509,18 +6572,18 @@
         <v>39</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6543,19 +6606,19 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>39</v>
@@ -6604,7 +6667,7 @@
         <v>39</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>40</v>
@@ -6619,10 +6682,10 @@
         <v>39</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>39</v>
@@ -6630,7 +6693,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6653,16 +6716,16 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6712,7 +6775,7 @@
         <v>39</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>40</v>
@@ -6724,13 +6787,13 @@
         <v>39</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>39</v>
@@ -6738,7 +6801,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6844,7 +6907,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6952,11 +7015,11 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
@@ -6978,10 +7041,10 @@
         <v>71</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>74</v>
@@ -7034,7 +7097,7 @@
         <v>39</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>40</v>
@@ -7060,7 +7123,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7086,13 +7149,13 @@
         <v>119</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7118,13 +7181,13 @@
         <v>39</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>39</v>
@@ -7142,7 +7205,7 @@
         <v>39</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>50</v>
@@ -7157,10 +7220,10 @@
         <v>39</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>39</v>
@@ -7168,7 +7231,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7191,13 +7254,13 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7248,7 +7311,7 @@
         <v>39</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>50</v>
@@ -7263,10 +7326,10 @@
         <v>39</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>39</v>
@@ -7274,7 +7337,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7297,19 +7360,19 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>39</v>
@@ -7358,7 +7421,7 @@
         <v>39</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>40</v>
@@ -7370,13 +7433,13 @@
         <v>39</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>39</v>
@@ -7384,7 +7447,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7490,7 +7553,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7598,11 +7661,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7624,10 +7687,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M56" t="s" s="2">
         <v>74</v>
@@ -7680,7 +7743,7 @@
         <v>39</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>40</v>
@@ -7706,7 +7769,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7729,16 +7792,16 @@
         <v>51</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -7767,10 +7830,10 @@
         <v>109</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>39</v>
@@ -7788,7 +7851,7 @@
         <v>39</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>40</v>
@@ -7803,10 +7866,10 @@
         <v>39</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>39</v>
@@ -7814,7 +7877,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7837,13 +7900,13 @@
         <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7894,7 +7957,7 @@
         <v>39</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>40</v>
@@ -7909,10 +7972,10 @@
         <v>39</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>39</v>
@@ -7920,7 +7983,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7943,13 +8006,13 @@
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8000,7 +8063,7 @@
         <v>39</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>40</v>
@@ -8015,7 +8078,7 @@
         <v>39</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>68</v>
@@ -8026,7 +8089,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8049,13 +8112,13 @@
         <v>39</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8094,17 +8157,17 @@
         <v>39</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>40</v>
@@ -8116,13 +8179,13 @@
         <v>39</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>39</v>
@@ -8130,7 +8193,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8236,7 +8299,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8340,10 +8403,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C63" t="s" s="2">
         <v>39</v>
@@ -8365,13 +8428,13 @@
         <v>39</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8434,7 +8497,7 @@
         <v>152</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>39</v>
@@ -8448,11 +8511,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8474,10 +8537,10 @@
         <v>71</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>74</v>
@@ -8530,7 +8593,7 @@
         <v>39</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>40</v>
@@ -8556,11 +8619,11 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8582,16 +8645,16 @@
         <v>64</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>39</v>
@@ -8640,7 +8703,7 @@
         <v>39</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>40</v>
@@ -8655,10 +8718,10 @@
         <v>39</v>
       </c>
       <c r="AJ65" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK65" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>39</v>
@@ -8666,7 +8729,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8689,19 +8752,19 @@
         <v>39</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>39</v>
@@ -8729,10 +8792,10 @@
         <v>109</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>39</v>
@@ -8750,7 +8813,7 @@
         <v>39</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>40</v>
@@ -8765,10 +8828,10 @@
         <v>39</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK66" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>39</v>
@@ -8776,7 +8839,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8802,13 +8865,13 @@
         <v>129</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -8858,7 +8921,7 @@
         <v>39</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>40</v>
@@ -8867,16 +8930,16 @@
         <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>39</v>
@@ -8884,7 +8947,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8910,16 +8973,16 @@
         <v>119</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>39</v>
@@ -8944,13 +9007,13 @@
         <v>39</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>39</v>
@@ -8968,7 +9031,7 @@
         <v>39</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>40</v>
@@ -8983,18 +9046,18 @@
         <v>39</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9017,19 +9080,19 @@
         <v>39</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>39</v>
@@ -9054,13 +9117,13 @@
         <v>39</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>39</v>
@@ -9078,7 +9141,7 @@
         <v>39</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>40</v>
@@ -9093,7 +9156,7 @@
         <v>39</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>68</v>
@@ -9104,7 +9167,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9127,16 +9190,16 @@
         <v>39</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9186,7 +9249,7 @@
         <v>39</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>40</v>
@@ -9195,16 +9258,16 @@
         <v>41</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>39</v>
@@ -9212,7 +9275,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9235,19 +9298,19 @@
         <v>39</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>39</v>
@@ -9272,13 +9335,13 @@
         <v>39</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>39</v>
@@ -9296,7 +9359,7 @@
         <v>39</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>40</v>
@@ -9305,13 +9368,13 @@
         <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>68</v>
@@ -9322,7 +9385,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9348,13 +9411,13 @@
         <v>39</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9404,7 +9467,7 @@
         <v>39</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>40</v>
@@ -9413,16 +9476,16 @@
         <v>41</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>39</v>
@@ -9430,10 +9493,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C73" t="s" s="2">
         <v>39</v>
@@ -9455,13 +9518,13 @@
         <v>39</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9512,7 +9575,7 @@
         <v>39</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>40</v>
@@ -9524,13 +9587,13 @@
         <v>39</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>39</v>
@@ -9538,7 +9601,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9644,7 +9707,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9748,10 +9811,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>39</v>
@@ -9773,13 +9836,13 @@
         <v>39</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9842,7 +9905,7 @@
         <v>152</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>39</v>
@@ -9856,11 +9919,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -9882,10 +9945,10 @@
         <v>71</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>74</v>
@@ -9938,7 +10001,7 @@
         <v>39</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>40</v>
@@ -9964,11 +10027,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9990,23 +10053,23 @@
         <v>64</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>39</v>
@@ -10048,7 +10111,7 @@
         <v>39</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>40</v>
@@ -10063,10 +10126,10 @@
         <v>39</v>
       </c>
       <c r="AJ78" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK78" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>39</v>
@@ -10074,7 +10137,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -10097,29 +10160,29 @@
         <v>39</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P79" s="2"/>
       <c r="Q79" t="s" s="2">
-        <v>426</v>
+        <v>39</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>39</v>
+        <v>427</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>39</v>
@@ -10137,10 +10200,10 @@
         <v>109</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>39</v>
@@ -10158,7 +10221,7 @@
         <v>39</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>40</v>
@@ -10173,10 +10236,10 @@
         <v>39</v>
       </c>
       <c r="AJ79" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK79" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>39</v>
@@ -10184,7 +10247,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10210,13 +10273,13 @@
         <v>129</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -10266,7 +10329,7 @@
         <v>39</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>40</v>
@@ -10275,16 +10338,16 @@
         <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>39</v>
@@ -10292,7 +10355,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10318,23 +10381,23 @@
         <v>119</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P81" s="2"/>
       <c r="Q81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="R81" t="s" s="2">
         <v>39</v>
@@ -10352,13 +10415,13 @@
         <v>39</v>
       </c>
       <c r="W81" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Z81" t="s" s="2">
         <v>39</v>
@@ -10376,7 +10439,7 @@
         <v>39</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>40</v>
@@ -10391,18 +10454,18 @@
         <v>39</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -10425,19 +10488,19 @@
         <v>39</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O82" t="s" s="2">
         <v>39</v>
@@ -10462,13 +10525,13 @@
         <v>39</v>
       </c>
       <c r="W82" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z82" t="s" s="2">
         <v>39</v>
@@ -10486,7 +10549,7 @@
         <v>39</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>40</v>
@@ -10501,7 +10564,7 @@
         <v>39</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>68</v>
@@ -10512,7 +10575,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10535,16 +10598,16 @@
         <v>39</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
@@ -10594,7 +10657,7 @@
         <v>39</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>40</v>
@@ -10603,24 +10666,24 @@
         <v>41</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10634,7 +10697,7 @@
         <v>50</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>39</v>
@@ -10643,20 +10706,16 @@
         <v>39</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>409</v>
+        <v>65</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>39</v>
       </c>
@@ -10680,11 +10739,13 @@
         <v>39</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X84" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y84" t="s" s="2">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>39</v>
@@ -10702,7 +10763,7 @@
         <v>39</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>40</v>
@@ -10711,16 +10772,16 @@
         <v>50</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>39</v>
@@ -10728,11 +10789,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>432</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -10751,16 +10812,16 @@
         <v>39</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>417</v>
+        <v>72</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>418</v>
+        <v>73</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>419</v>
+        <v>74</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
@@ -10798,19 +10859,19 @@
         <v>39</v>
       </c>
       <c r="AA85" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD85" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>40</v>
@@ -10819,28 +10880,26 @@
         <v>41</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>357</v>
+        <v>68</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>420</v>
+        <v>39</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B86" t="s" s="2">
-        <v>431</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>39</v>
       </c>
@@ -10852,24 +10911,26 @@
         <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I86" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H86" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J86" t="s" s="2">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>435</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>39</v>
@@ -10918,25 +10979,25 @@
         <v>39</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>39</v>
+        <v>438</v>
       </c>
       <c r="AI86" t="s" s="2">
-        <v>434</v>
+        <v>39</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>357</v>
+        <v>143</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>39</v>
@@ -10944,7 +11005,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>359</v>
+        <v>439</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10964,18 +11025,20 @@
         <v>39</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>65</v>
+        <v>440</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M87" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>442</v>
+      </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>39</v>
@@ -11024,7 +11087,7 @@
         <v>39</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>67</v>
+        <v>443</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>40</v>
@@ -11039,7 +11102,7 @@
         <v>39</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>68</v>
+        <v>444</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>39</v>
@@ -11050,7 +11113,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>360</v>
+        <v>445</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11061,7 +11124,7 @@
         <v>40</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>39</v>
@@ -11070,18 +11133,20 @@
         <v>39</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>145</v>
+        <v>446</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>447</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>448</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>39</v>
@@ -11118,23 +11183,25 @@
         <v>39</v>
       </c>
       <c r="AA88" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB88" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC88" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD88" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>39</v>
@@ -11143,7 +11210,7 @@
         <v>39</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>39</v>
+        <v>143</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>39</v>
@@ -11152,13 +11219,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B89" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
         <v>39</v>
       </c>
@@ -11167,10 +11232,10 @@
         <v>40</v>
       </c>
       <c r="F89" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>39</v>
@@ -11179,16 +11244,20 @@
         <v>39</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>363</v>
+        <v>410</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>39</v>
       </c>
@@ -11212,13 +11281,11 @@
         <v>39</v>
       </c>
       <c r="W89" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="X89" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X89" s="2"/>
       <c r="Y89" t="s" s="2">
-        <v>39</v>
+        <v>450</v>
       </c>
       <c r="Z89" t="s" s="2">
         <v>39</v>
@@ -11236,25 +11303,25 @@
         <v>39</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>78</v>
+        <v>409</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>152</v>
+        <v>406</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>39</v>
+        <v>416</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>39</v>
@@ -11262,11 +11329,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>365</v>
+        <v>417</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11279,22 +11346,22 @@
         <v>39</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>160</v>
+        <v>418</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>267</v>
+        <v>419</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>74</v>
+        <v>420</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -11344,7 +11411,7 @@
         <v>39</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>268</v>
+        <v>417</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>40</v>
@@ -11353,16 +11420,16 @@
         <v>41</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>143</v>
+        <v>358</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>39</v>
+        <v>421</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>39</v>
@@ -11370,11 +11437,13 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="B91" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="C91" t="s" s="2">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11393,26 +11462,22 @@
         <v>39</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>64</v>
+        <v>249</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>368</v>
+        <v>452</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
       <c r="O91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P91" s="2"/>
       <c r="Q91" t="s" s="2">
-        <v>435</v>
+        <v>39</v>
       </c>
       <c r="R91" t="s" s="2">
         <v>39</v>
@@ -11454,33 +11519,33 @@
         <v>39</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>39</v>
+        <v>454</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>240</v>
+        <v>358</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>241</v>
+        <v>359</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11488,13 +11553,13 @@
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>39</v>
@@ -11503,26 +11568,22 @@
         <v>39</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>373</v>
+        <v>65</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P92" s="2"/>
       <c r="Q92" t="s" s="2">
-        <v>436</v>
+        <v>39</v>
       </c>
       <c r="R92" t="s" s="2">
         <v>39</v>
@@ -11540,13 +11601,13 @@
         <v>39</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>377</v>
+        <v>39</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>378</v>
+        <v>39</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>39</v>
@@ -11564,7 +11625,7 @@
         <v>39</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>372</v>
+        <v>67</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>40</v>
@@ -11579,18 +11640,18 @@
         <v>39</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>191</v>
+        <v>68</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11598,13 +11659,13 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>39</v>
@@ -11613,17 +11674,15 @@
         <v>39</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>380</v>
+        <v>145</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M93" s="2"/>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>39</v>
@@ -11660,37 +11719,35 @@
         <v>39</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB93" s="2"/>
       <c r="AC93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>379</v>
+        <v>78</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>39</v>
@@ -11698,9 +11755,11 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="B94" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="C94" t="s" s="2">
         <v>39</v>
       </c>
@@ -11709,38 +11768,34 @@
         <v>40</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>119</v>
+        <v>363</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>386</v>
+        <v>364</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
-        <v>427</v>
+        <v>39</v>
       </c>
       <c r="R94" t="s" s="2">
         <v>39</v>
@@ -11758,13 +11813,13 @@
         <v>39</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>39</v>
@@ -11782,69 +11837,67 @@
         <v>39</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>385</v>
+        <v>78</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>394</v>
+        <v>159</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>395</v>
+        <v>266</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>39</v>
       </c>
@@ -11868,13 +11921,13 @@
         <v>39</v>
       </c>
       <c r="W95" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X95" t="s" s="2">
-        <v>398</v>
+        <v>39</v>
       </c>
       <c r="Y95" t="s" s="2">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="Z95" t="s" s="2">
         <v>39</v>
@@ -11892,13 +11945,13 @@
         <v>39</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>393</v>
+        <v>267</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>39</v>
@@ -11907,10 +11960,10 @@
         <v>39</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>400</v>
+        <v>143</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>39</v>
@@ -11918,18 +11971,18 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>51</v>
@@ -11941,24 +11994,26 @@
         <v>39</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>437</v>
+        <v>64</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>438</v>
+        <v>369</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>371</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P96" s="2"/>
       <c r="Q96" t="s" s="2">
-        <v>39</v>
+        <v>455</v>
       </c>
       <c r="R96" t="s" s="2">
         <v>39</v>
@@ -12000,25 +12055,25 @@
         <v>39</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>406</v>
+        <v>239</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>407</v>
+        <v>240</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>39</v>
@@ -12026,7 +12081,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12034,7 +12089,7 @@
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F97" t="s" s="2">
         <v>50</v>
@@ -12049,19 +12104,19 @@
         <v>39</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>411</v>
+        <v>376</v>
       </c>
       <c r="N97" t="s" s="2">
-        <v>412</v>
+        <v>377</v>
       </c>
       <c r="O97" t="s" s="2">
         <v>39</v>
@@ -12071,7 +12126,7 @@
         <v>39</v>
       </c>
       <c r="R97" t="s" s="2">
-        <v>39</v>
+        <v>456</v>
       </c>
       <c r="S97" t="s" s="2">
         <v>39</v>
@@ -12086,11 +12141,13 @@
         <v>39</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X97" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="Y97" t="s" s="2">
-        <v>430</v>
+        <v>379</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>39</v>
@@ -12108,7 +12165,7 @@
         <v>39</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>408</v>
+        <v>373</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>40</v>
@@ -12117,24 +12174,24 @@
         <v>50</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>415</v>
+        <v>190</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>68</v>
+        <v>191</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -12142,13 +12199,13 @@
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>39</v>
@@ -12157,16 +12214,16 @@
         <v>39</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>418</v>
+        <v>382</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>419</v>
+        <v>383</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
@@ -12216,73 +12273,75 @@
         <v>39</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>420</v>
+        <v>385</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>439</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G99" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H99" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H99" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I99" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>250</v>
+        <v>119</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>390</v>
+      </c>
       <c r="O99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>39</v>
+        <v>428</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>39</v>
@@ -12300,13 +12359,13 @@
         <v>39</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="Y99" t="s" s="2">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>39</v>
@@ -12324,33 +12383,33 @@
         <v>39</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AI99" t="s" s="2">
-        <v>442</v>
+        <v>39</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>357</v>
+        <v>393</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>358</v>
+        <v>68</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12373,16 +12432,20 @@
         <v>39</v>
       </c>
       <c r="J100" t="s" s="2">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>65</v>
+        <v>395</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
+        <v>396</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>398</v>
+      </c>
       <c r="O100" t="s" s="2">
         <v>39</v>
       </c>
@@ -12406,13 +12469,13 @@
         <v>39</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>39</v>
+        <v>187</v>
       </c>
       <c r="X100" t="s" s="2">
-        <v>39</v>
+        <v>399</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>39</v>
+        <v>400</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>39</v>
@@ -12430,7 +12493,7 @@
         <v>39</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>67</v>
+        <v>394</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>40</v>
@@ -12445,18 +12508,18 @@
         <v>39</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK100" t="s" s="2">
         <v>68</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="AL100" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>360</v>
+        <v>402</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -12470,7 +12533,7 @@
         <v>41</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>39</v>
@@ -12479,15 +12542,17 @@
         <v>39</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>71</v>
+        <v>457</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>145</v>
+        <v>458</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>39</v>
@@ -12524,17 +12589,19 @@
         <v>39</v>
       </c>
       <c r="AA101" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB101" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD101" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>40</v>
@@ -12543,16 +12610,16 @@
         <v>41</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>39</v>
+        <v>407</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>39</v>
+        <v>408</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>39</v>
@@ -12560,11 +12627,9 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
         <v>39</v>
       </c>
@@ -12573,7 +12638,7 @@
         <v>40</v>
       </c>
       <c r="F102" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G102" t="s" s="2">
         <v>39</v>
@@ -12585,13 +12650,13 @@
         <v>39</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>362</v>
+        <v>64</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>363</v>
+        <v>65</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>364</v>
+        <v>66</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12642,22 +12707,22 @@
         <v>39</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AI102" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>39</v>
@@ -12668,11 +12733,11 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>365</v>
+        <v>432</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -12685,19 +12750,19 @@
         <v>39</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I103" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J103" t="s" s="2">
         <v>71</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>267</v>
+        <v>73</v>
       </c>
       <c r="M103" t="s" s="2">
         <v>74</v>
@@ -12738,19 +12803,19 @@
         <v>39</v>
       </c>
       <c r="AA103" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AB103" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC103" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD103" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>268</v>
+        <v>78</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>40</v>
@@ -12765,7 +12830,7 @@
         <v>39</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>39</v>
@@ -12774,13 +12839,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>366</v>
+        <v>433</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -12790,35 +12855,33 @@
         <v>50</v>
       </c>
       <c r="G104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I104" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="J104" t="s" s="2">
         <v>64</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>369</v>
+        <v>435</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>371</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P104" s="2"/>
       <c r="Q104" t="s" s="2">
-        <v>440</v>
+        <v>39</v>
       </c>
       <c r="R104" t="s" s="2">
         <v>39</v>
@@ -12860,7 +12923,7 @@
         <v>39</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>366</v>
+        <v>437</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>40</v>
@@ -12869,24 +12932,24 @@
         <v>50</v>
       </c>
       <c r="AH104" t="s" s="2">
-        <v>39</v>
+        <v>438</v>
       </c>
       <c r="AI104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ104" t="s" s="2">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="AK104" t="s" s="2">
-        <v>241</v>
+        <v>39</v>
       </c>
       <c r="AL104" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>372</v>
+        <v>439</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12894,84 +12957,82 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I105" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J105" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>373</v>
+        <v>440</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>374</v>
+        <v>441</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>376</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P105" s="2"/>
       <c r="Q105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE105" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="R105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>372</v>
-      </c>
       <c r="AF105" t="s" s="2">
         <v>40</v>
       </c>
@@ -12985,18 +13046,18 @@
         <v>39</v>
       </c>
       <c r="AJ105" t="s" s="2">
-        <v>191</v>
+        <v>444</v>
       </c>
       <c r="AK105" t="s" s="2">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="AL105" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>379</v>
+        <v>445</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -13004,31 +13065,31 @@
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F106" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I106" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H106" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J106" t="s" s="2">
-        <v>129</v>
+        <v>64</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>382</v>
+        <v>448</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" t="s" s="2">
@@ -13078,7 +13139,7 @@
         <v>39</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>379</v>
+        <v>449</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>40</v>
@@ -13087,24 +13148,24 @@
         <v>50</v>
       </c>
       <c r="AH106" t="s" s="2">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="AI106" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>384</v>
+        <v>143</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>384</v>
+        <v>39</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13118,35 +13179,35 @@
         <v>50</v>
       </c>
       <c r="G107" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="N107" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="O107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P107" s="2"/>
       <c r="Q107" t="s" s="2">
-        <v>427</v>
+        <v>39</v>
       </c>
       <c r="R107" t="s" s="2">
         <v>39</v>
@@ -13164,13 +13225,11 @@
         <v>39</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>390</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="X107" s="2"/>
       <c r="Y107" t="s" s="2">
-        <v>391</v>
+        <v>450</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>39</v>
@@ -13188,7 +13247,7 @@
         <v>39</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>40</v>
@@ -13197,24 +13256,24 @@
         <v>50</v>
       </c>
       <c r="AH107" t="s" s="2">
-        <v>39</v>
+        <v>406</v>
       </c>
       <c r="AI107" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>68</v>
       </c>
       <c r="AL107" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13225,7 +13284,7 @@
         <v>40</v>
       </c>
       <c r="F108" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G108" t="s" s="2">
         <v>39</v>
@@ -13237,20 +13296,18 @@
         <v>39</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>182</v>
+        <v>39</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
         <v>39</v>
       </c>
@@ -13274,13 +13331,13 @@
         <v>39</v>
       </c>
       <c r="W108" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X108" t="s" s="2">
-        <v>398</v>
+        <v>39</v>
       </c>
       <c r="Y108" t="s" s="2">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="Z108" t="s" s="2">
         <v>39</v>
@@ -13298,25 +13355,25 @@
         <v>39</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG108" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH108" t="s" s="2">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="AI108" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="AK108" t="s" s="2">
-        <v>68</v>
+        <v>421</v>
       </c>
       <c r="AL108" t="s" s="2">
         <v>39</v>
@@ -13324,18 +13381,20 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="B109" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>459</v>
+      </c>
       <c r="C109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>51</v>
@@ -13347,17 +13406,15 @@
         <v>39</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>404</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>39</v>
@@ -13406,7 +13463,7 @@
         <v>39</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>401</v>
+        <v>352</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>40</v>
@@ -13415,24 +13472,24 @@
         <v>41</v>
       </c>
       <c r="AH109" t="s" s="2">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>39</v>
+        <v>462</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="AK109" t="s" s="2">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="AL109" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>408</v>
+        <v>360</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -13446,7 +13503,7 @@
         <v>50</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>39</v>
@@ -13455,20 +13512,16 @@
         <v>39</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>182</v>
+        <v>64</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>409</v>
+        <v>65</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
       <c r="O110" t="s" s="2">
         <v>39</v>
       </c>
@@ -13492,11 +13545,13 @@
         <v>39</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X110" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X110" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y110" t="s" s="2">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>39</v>
@@ -13514,7 +13569,7 @@
         <v>39</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>408</v>
+        <v>67</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>40</v>
@@ -13523,16 +13578,16 @@
         <v>50</v>
       </c>
       <c r="AH110" t="s" s="2">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="AI110" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ110" t="s" s="2">
-        <v>415</v>
+        <v>68</v>
       </c>
       <c r="AK110" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL110" t="s" s="2">
         <v>39</v>
@@ -13540,7 +13595,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>416</v>
+        <v>361</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -13563,17 +13618,15 @@
         <v>39</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>417</v>
+        <v>145</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M111" t="s" s="2">
-        <v>419</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>39</v>
@@ -13610,19 +13663,17 @@
         <v>39</v>
       </c>
       <c r="AA111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="AB111" s="2"/>
       <c r="AC111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD111" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>40</v>
@@ -13631,40 +13682,40 @@
         <v>41</v>
       </c>
       <c r="AH111" t="s" s="2">
-        <v>383</v>
+        <v>39</v>
       </c>
       <c r="AI111" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ111" t="s" s="2">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>420</v>
+        <v>39</v>
       </c>
       <c r="AL111" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="C112" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F112" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>39</v>
@@ -13673,13 +13724,13 @@
         <v>39</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>250</v>
+        <v>363</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>447</v>
+        <v>364</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>448</v>
+        <v>365</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" s="2"/>
@@ -13730,7 +13781,7 @@
         <v>39</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>40</v>
@@ -13739,16 +13790,16 @@
         <v>41</v>
       </c>
       <c r="AH112" t="s" s="2">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="AI112" t="s" s="2">
-        <v>449</v>
+        <v>153</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>357</v>
+        <v>39</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="AL112" t="s" s="2">
         <v>39</v>
@@ -13756,38 +13807,40 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
-        <v>39</v>
+        <v>265</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="H113" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M113" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="M113" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>39</v>
@@ -13836,13 +13889,13 @@
         <v>39</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>67</v>
+        <v>267</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>39</v>
@@ -13851,7 +13904,7 @@
         <v>39</v>
       </c>
       <c r="AJ113" t="s" s="2">
-        <v>68</v>
+        <v>143</v>
       </c>
       <c r="AK113" t="s" s="2">
         <v>39</v>
@@ -13860,23 +13913,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" hidden="true">
+    <row r="114">
       <c r="A114" t="s" s="2">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
-        <v>39</v>
+        <v>368</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F114" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G114" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H114" t="s" s="2">
         <v>39</v>
@@ -13885,22 +13938,26 @@
         <v>39</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>145</v>
+        <v>369</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M114" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N114" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="O114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
-        <v>39</v>
+        <v>460</v>
       </c>
       <c r="R114" t="s" s="2">
         <v>39</v>
@@ -13930,23 +13987,25 @@
         <v>39</v>
       </c>
       <c r="AA114" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB114" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC114" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD114" t="s" s="2">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>78</v>
+        <v>367</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>39</v>
@@ -13955,34 +14014,32 @@
         <v>39</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>39</v>
+        <v>240</v>
       </c>
       <c r="AL114" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="115" hidden="true">
+    <row r="115">
       <c r="A115" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="B115" t="s" s="2">
-        <v>361</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G115" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H115" t="s" s="2">
         <v>39</v>
@@ -13991,16 +14048,20 @@
         <v>39</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>362</v>
+        <v>181</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
+        <v>375</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N115" t="s" s="2">
+        <v>377</v>
+      </c>
       <c r="O115" t="s" s="2">
         <v>39</v>
       </c>
@@ -14009,7 +14070,7 @@
         <v>39</v>
       </c>
       <c r="R115" t="s" s="2">
-        <v>39</v>
+        <v>463</v>
       </c>
       <c r="S115" t="s" s="2">
         <v>39</v>
@@ -14024,13 +14085,13 @@
         <v>39</v>
       </c>
       <c r="W115" t="s" s="2">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="X115" t="s" s="2">
-        <v>39</v>
+        <v>378</v>
       </c>
       <c r="Y115" t="s" s="2">
-        <v>39</v>
+        <v>379</v>
       </c>
       <c r="Z115" t="s" s="2">
         <v>39</v>
@@ -14048,65 +14109,65 @@
         <v>39</v>
       </c>
       <c r="AE115" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AF115" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH115" t="s" s="2">
-        <v>152</v>
+        <v>39</v>
       </c>
       <c r="AI115" t="s" s="2">
-        <v>158</v>
+        <v>39</v>
       </c>
       <c r="AJ115" t="s" s="2">
-        <v>39</v>
+        <v>190</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>39</v>
+        <v>191</v>
       </c>
       <c r="AL115" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="116" hidden="true">
+    <row r="116">
       <c r="A116" t="s" s="2">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
-        <v>266</v>
+        <v>39</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F116" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G116" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="H116" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>71</v>
+        <v>129</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>160</v>
+        <v>381</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>267</v>
+        <v>382</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>74</v>
+        <v>383</v>
       </c>
       <c r="N116" s="2"/>
       <c r="O116" t="s" s="2">
@@ -14156,75 +14217,75 @@
         <v>39</v>
       </c>
       <c r="AE116" t="s" s="2">
-        <v>268</v>
+        <v>380</v>
       </c>
       <c r="AF116" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG116" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH116" t="s" s="2">
-        <v>39</v>
+        <v>384</v>
       </c>
       <c r="AI116" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ116" t="s" s="2">
-        <v>143</v>
+        <v>385</v>
       </c>
       <c r="AK116" t="s" s="2">
-        <v>39</v>
+        <v>385</v>
       </c>
       <c r="AL116" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
-        <v>367</v>
+        <v>39</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F117" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G117" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H117" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H117" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="I117" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>368</v>
+        <v>387</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>369</v>
+        <v>388</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>370</v>
+        <v>389</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="O117" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>39</v>
@@ -14242,13 +14303,13 @@
         <v>39</v>
       </c>
       <c r="W117" t="s" s="2">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="X117" t="s" s="2">
-        <v>39</v>
+        <v>391</v>
       </c>
       <c r="Y117" t="s" s="2">
-        <v>39</v>
+        <v>392</v>
       </c>
       <c r="Z117" t="s" s="2">
         <v>39</v>
@@ -14266,7 +14327,7 @@
         <v>39</v>
       </c>
       <c r="AE117" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AF117" t="s" s="2">
         <v>40</v>
@@ -14281,18 +14342,18 @@
         <v>39</v>
       </c>
       <c r="AJ117" t="s" s="2">
-        <v>240</v>
+        <v>393</v>
       </c>
       <c r="AK117" t="s" s="2">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>39</v>
+        <v>192</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -14300,13 +14361,13 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F118" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G118" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="H118" t="s" s="2">
         <v>39</v>
@@ -14315,26 +14376,26 @@
         <v>39</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="O118" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P118" s="2"/>
       <c r="Q118" t="s" s="2">
-        <v>450</v>
+        <v>39</v>
       </c>
       <c r="R118" t="s" s="2">
         <v>39</v>
@@ -14352,13 +14413,13 @@
         <v>39</v>
       </c>
       <c r="W118" t="s" s="2">
-        <v>109</v>
+        <v>187</v>
       </c>
       <c r="X118" t="s" s="2">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="Y118" t="s" s="2">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="Z118" t="s" s="2">
         <v>39</v>
@@ -14376,7 +14437,7 @@
         <v>39</v>
       </c>
       <c r="AE118" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="AF118" t="s" s="2">
         <v>40</v>
@@ -14391,10 +14452,10 @@
         <v>39</v>
       </c>
       <c r="AJ118" t="s" s="2">
-        <v>191</v>
+        <v>401</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>192</v>
+        <v>68</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>39</v>
@@ -14402,7 +14463,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -14410,10 +14471,10 @@
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F119" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G119" t="s" s="2">
         <v>51</v>
@@ -14425,16 +14486,16 @@
         <v>39</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>129</v>
+        <v>464</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" t="s" s="2">
@@ -14484,25 +14545,25 @@
         <v>39</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH119" t="s" s="2">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="AI119" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>39</v>
@@ -14510,7 +14571,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -14527,32 +14588,28 @@
         <v>39</v>
       </c>
       <c r="H120" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>386</v>
+        <v>65</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>389</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
-        <v>427</v>
+        <v>39</v>
       </c>
       <c r="R120" t="s" s="2">
         <v>39</v>
@@ -14570,13 +14627,13 @@
         <v>39</v>
       </c>
       <c r="W120" t="s" s="2">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>390</v>
+        <v>39</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>391</v>
+        <v>39</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>39</v>
@@ -14594,7 +14651,7 @@
         <v>39</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>385</v>
+        <v>67</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>40</v>
@@ -14609,29 +14666,29 @@
         <v>39</v>
       </c>
       <c r="AJ120" t="s" s="2">
-        <v>392</v>
+        <v>68</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL120" t="s" s="2">
-        <v>193</v>
+        <v>39</v>
       </c>
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>393</v>
+        <v>432</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="F121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G121" t="s" s="2">
         <v>39</v>
@@ -14643,20 +14700,18 @@
         <v>39</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>182</v>
+        <v>71</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>394</v>
+        <v>72</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>395</v>
+        <v>73</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="N121" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
         <v>39</v>
       </c>
@@ -14680,37 +14735,37 @@
         <v>39</v>
       </c>
       <c r="W121" t="s" s="2">
-        <v>188</v>
+        <v>39</v>
       </c>
       <c r="X121" t="s" s="2">
-        <v>398</v>
+        <v>39</v>
       </c>
       <c r="Y121" t="s" s="2">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="Z121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="AB121" t="s" s="2">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="AC121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD121" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>39</v>
@@ -14719,18 +14774,18 @@
         <v>39</v>
       </c>
       <c r="AJ121" t="s" s="2">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL121" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
       <c r="B122" s="2"/>
       <c r="C122" t="s" s="2">
@@ -14738,31 +14793,31 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F122" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I122" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H122" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I122" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J122" t="s" s="2">
-        <v>451</v>
+        <v>64</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -14812,33 +14867,33 @@
         <v>39</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>401</v>
+        <v>437</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>405</v>
+        <v>438</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>406</v>
+        <v>143</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>407</v>
+        <v>39</v>
       </c>
       <c r="AL122" t="s" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>408</v>
+        <v>439</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -14852,29 +14907,27 @@
         <v>50</v>
       </c>
       <c r="G123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I123" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H123" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="I123" t="s" s="2">
-        <v>39</v>
-      </c>
       <c r="J123" t="s" s="2">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N123" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
         <v>39</v>
       </c>
@@ -14898,11 +14951,13 @@
         <v>39</v>
       </c>
       <c r="W123" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="X123" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="Y123" t="s" s="2">
-        <v>430</v>
+        <v>39</v>
       </c>
       <c r="Z123" t="s" s="2">
         <v>39</v>
@@ -14920,7 +14975,7 @@
         <v>39</v>
       </c>
       <c r="AE123" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
       <c r="AF123" t="s" s="2">
         <v>40</v>
@@ -14929,16 +14984,16 @@
         <v>50</v>
       </c>
       <c r="AH123" t="s" s="2">
-        <v>405</v>
+        <v>39</v>
       </c>
       <c r="AI123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AJ123" t="s" s="2">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="AK123" t="s" s="2">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="AL123" t="s" s="2">
         <v>39</v>
@@ -14946,7 +15001,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -14957,7 +15012,7 @@
         <v>40</v>
       </c>
       <c r="F124" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G124" t="s" s="2">
         <v>39</v>
@@ -14966,19 +15021,19 @@
         <v>39</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" t="s" s="2">
@@ -15028,32 +15083,2192 @@
         <v>39</v>
       </c>
       <c r="AE124" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N125" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X125" s="2"/>
+      <c r="Y125" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AF124" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AG124" t="s" s="2">
+      <c r="AK125" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F126" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="AH124" t="s" s="2">
+      <c r="G126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M126" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B127" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB129" s="2"/>
+      <c r="AC129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B130" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M132" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N132" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="O132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="M133" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N133" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="O133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="M134" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AI124" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ124" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AK124" t="s" s="2">
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="N135" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="O135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M136" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N136" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="O136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="M137" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="N139" s="2"/>
+      <c r="O139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M140" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="M141" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N143" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="O143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="X143" s="2"/>
+      <c r="Y143" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M144" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="AL124" t="s" s="2">
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AL144" t="s" s="2">
         <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL124">
+  <autoFilter ref="A1:AL144">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15063,7 +17278,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI123">
+  <conditionalFormatting sqref="A2:AI143">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
